--- a/va_facility_data_2025-02-20/Cumberland County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cumberland%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cumberland County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cumberland%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R392c8d84a71d49b7bdbfbc2a6f3524b0"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R55d1e4dcc5d44894a4e701175a058e12"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R21cb6f88a6564c4aa189f65ed66afbe9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R432855b55a4d4c43997b014963479ed3"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb58f672341304ecca9daa6b85ac5662c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7e2484915f0642cab0590be3cb792f6c"/>
   </x:sheets>
 </x:workbook>
 </file>
